--- a/comparador/sheet_b.xlsx
+++ b/comparador/sheet_b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Automações\comparador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uolinc-my.sharepoint.com/personal/cin_acampos_uolinc_com/Documents/Automações/Repo-pessoal/python/comparador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665294EF-13B2-4FF5-998C-506F331C76BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{665294EF-13B2-4FF5-998C-506F331C76BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48F36E1B-2A41-4CA4-B69A-465B9D4F5D20}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/comparador/sheet_b.xlsx
+++ b/comparador/sheet_b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uolinc-my.sharepoint.com/personal/cin_acampos_uolinc_com/Documents/Automações/Repo-pessoal/python/comparador/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{665294EF-13B2-4FF5-998C-506F331C76BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48F36E1B-2A41-4CA4-B69A-465B9D4F5D20}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{665294EF-13B2-4FF5-998C-506F331C76BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E1CC39C-32A6-4088-8344-0B9CD417EEF8}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>Host</t>
-  </si>
-  <si>
     <t>ip</t>
   </si>
   <si>
@@ -91,13 +88,16 @@
   </si>
   <si>
     <t>192.168.100.13</t>
+  </si>
+  <si>
+    <t>host</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +107,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,8 +140,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,107 +423,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>